--- a/dados/coord.xlsx
+++ b/dados/coord.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\710_regras\proposta\ME710_chuva\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\ME710\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -398,8 +398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,10 +535,10 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>7.367953</v>
+        <v>5.066128</v>
       </c>
       <c r="B17">
-        <v>48.233308999999998</v>
+        <v>44.122455000000002</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -591,10 +591,10 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>6.5742919999999998</v>
+        <v>2.7638020000000001</v>
       </c>
       <c r="B24">
-        <v>45.717104900000002</v>
+        <v>43.308250999999998</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -663,10 +663,10 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>6.7121870000000001</v>
+        <v>3.045852</v>
       </c>
       <c r="B33">
-        <v>45.892012999999999</v>
+        <v>43.670779000000003</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">

--- a/dados/coord.xlsx
+++ b/dados/coord.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\ME710\dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\710_regras\7\ME710\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,19 +19,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>lon</t>
   </si>
   <si>
     <t>lat</t>
   </si>
+  <si>
+    <t>elevation</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -48,28 +51,53 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Console"/>
-      <family val="3"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF555555"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7F8F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDFDFD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -77,11 +105,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCFD4D8"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCFD4D8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -89,8 +128,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -399,7 +444,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,319 +456,554 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2.3536630000000001</v>
       </c>
       <c r="B2">
         <v>43.212161000000002</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="C2" s="3">
+        <v>106.077026</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>2.5201159999999998</v>
       </c>
       <c r="B3">
         <v>43.270220000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" s="5">
+        <v>79.158423999999997</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2.2181419999999998</v>
       </c>
       <c r="B4">
         <v>43.053288999999999</v>
       </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" s="3">
+        <v>173.51908900000001</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3.0030779999999999</v>
       </c>
       <c r="B5">
         <v>43.184277000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="5">
+        <v>9.1779489999999999</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2.7185600000000001</v>
       </c>
       <c r="B6">
         <v>42.889301000000003</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="3">
+        <v>167.65948499999999</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4.1925869000000002</v>
       </c>
       <c r="B7">
         <v>43.567171999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="5">
+        <v>3.8233069999999998</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4.6442690000000004</v>
       </c>
       <c r="B8">
         <v>43.807234999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="3">
+        <v>14.984075000000001</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4.5220190000000002</v>
       </c>
       <c r="B9">
         <v>44.114237000000003</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="5">
+        <v>132.49148600000001</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2.0668329999999999</v>
       </c>
       <c r="B10">
         <v>43.438384900000003</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="3">
+        <v>344.72586100000001</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3.9502660000000001</v>
       </c>
       <c r="B11">
         <v>44.350532999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="5">
+        <v>495.944275</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>4.0233889999999999</v>
       </c>
       <c r="B12">
         <v>44.416215000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="3">
+        <v>844.01153599999998</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>4.1260719999999997</v>
       </c>
       <c r="B13">
         <v>43.929268999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="5">
+        <v>108.232742</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>4.3219209999999997</v>
       </c>
       <c r="B14">
         <v>43.934851999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="3">
+        <v>70.103049999999996</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>4.3600539999999999</v>
       </c>
       <c r="B15">
         <v>43.836699000000003</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="5">
+        <v>47.705562999999998</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>4.6480790000000001</v>
       </c>
       <c r="B16">
         <v>44.261034000000002</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="3">
+        <v>45.985992000000003</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>5.066128</v>
       </c>
       <c r="B17">
         <v>44.122455000000002</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="5">
+        <v>169.47294600000001</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2.890479</v>
       </c>
       <c r="B18">
         <v>43.590803999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="3">
+        <v>899.84863299999995</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>4.1603019999999997</v>
       </c>
       <c r="B19">
         <v>44.167109000000004</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="5">
+        <v>177.35142500000001</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3.3889309999999999</v>
       </c>
       <c r="B20">
         <v>44.078389000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="3">
+        <v>600.07031199999994</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>3.5736017000000002</v>
       </c>
       <c r="B21">
         <v>44.1212327</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" s="5">
+        <v>1551.7423100000001</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3.606322</v>
       </c>
       <c r="B22">
         <v>43.992926999999987</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" s="3">
+        <v>235.57693499999999</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>4.0978640000000004</v>
       </c>
       <c r="B23">
         <v>43.794978999999998</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" s="5">
+        <v>61.432532999999999</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2.7638020000000001</v>
       </c>
       <c r="B24">
         <v>43.308250999999998</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" s="3">
+        <v>141.932312</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2.161975</v>
       </c>
       <c r="B25">
         <v>42.743426900000003</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" s="5">
+        <v>1130.4169919999999</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>3.4294950000000002</v>
       </c>
       <c r="B26">
         <v>43.627589999999998</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" s="3">
+        <v>121.439606</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>3.4629050000000001</v>
       </c>
       <c r="B27">
         <v>43.382124999999988</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" s="5">
+        <v>13.063252</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>3.551364</v>
       </c>
       <c r="B28">
         <v>43.653241000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" s="3">
+        <v>66.858504999999994</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>4.1353659999999994</v>
       </c>
       <c r="B29">
         <v>43.67445</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" s="5">
+        <v>8.1606760000000005</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2.9137279999999999</v>
       </c>
       <c r="B30">
         <v>43.556705999999998</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" s="3">
+        <v>195.08268699999999</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>3.0299839</v>
       </c>
       <c r="B31">
         <v>43.500577</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" s="5">
+        <v>96.380675999999994</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2.9451290000000001</v>
       </c>
       <c r="B32">
         <v>43.418646000000003</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" s="3">
+        <v>137.411224</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>3.045852</v>
       </c>
       <c r="B33">
         <v>43.670779000000003</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" s="5">
+        <v>419.35867300000001</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2.7600259999999999</v>
       </c>
       <c r="B34">
         <v>43.488222</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" s="3">
+        <v>314.57479899999998</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>3.7008219000000002</v>
       </c>
       <c r="B35">
         <v>43.407875799999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" s="5">
+        <v>2.9804949999999999</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>3.0861809999999998</v>
       </c>
       <c r="B36">
         <v>43.107052000000003</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" s="3">
+        <v>2.6114030000000001</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>4.6108609999999999</v>
       </c>
       <c r="B37">
         <v>43.692761999999988</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" s="5">
+        <v>7.60839</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>4.4337030000000004</v>
       </c>
       <c r="B38">
         <v>43.677078999999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" s="3">
+        <v>19.502749999999999</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>3.527539</v>
       </c>
       <c r="B39">
         <v>43.355966000000002</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" s="5">
+        <v>6.8556800000000004</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2.9807239999999999</v>
       </c>
       <c r="B40">
         <v>42.639455000000012</v>
       </c>
+      <c r="C40" s="3">
+        <v>8.2477230000000006</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
